--- a/user_input_files/planillas-web/NVR_DVR.xlsx
+++ b/user_input_files/planillas-web/NVR_DVR.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="NVR_DVR" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
   <si>
     <t>ID NVR</t>
   </si>
@@ -61,6 +61,24 @@
     <t>Observaciones</t>
   </si>
   <si>
+    <t>ID NVR/DVR</t>
+  </si>
+  <si>
+    <t>Capacidad Canales</t>
+  </si>
+  <si>
+    <t>Disco Duro Instalado</t>
+  </si>
+  <si>
+    <t>Gabinete Asociado</t>
+  </si>
+  <si>
+    <t>Fecha Instalación</t>
+  </si>
+  <si>
+    <t>Último Mantenimiento</t>
+  </si>
+  <si>
     <t>NVR-001</t>
   </si>
   <si>
@@ -70,9 +88,21 @@
     <t>NVR-003</t>
   </si>
   <si>
+    <t>UBI-006</t>
+  </si>
+  <si>
+    <t>UBI-007</t>
+  </si>
+  <si>
+    <t>UBI-004</t>
+  </si>
+  <si>
     <t>NVR</t>
   </si>
   <si>
+    <t>DVR</t>
+  </si>
+  <si>
     <t>Hikvision DS-7616NI-E2</t>
   </si>
   <si>
@@ -82,6 +112,15 @@
     <t>Hikvision DS-7608NI</t>
   </si>
   <si>
+    <t>DS-7608NI-K2</t>
+  </si>
+  <si>
+    <t>DS-7616NI-K2</t>
+  </si>
+  <si>
+    <t>XVR5108HS-4KL</t>
+  </si>
+  <si>
     <t>Hikvision</t>
   </si>
   <si>
@@ -106,6 +145,15 @@
     <t>192.168.1.102</t>
   </si>
   <si>
+    <t>192.168.5.20</t>
+  </si>
+  <si>
+    <t>192.168.6.10</t>
+  </si>
+  <si>
+    <t>192.168.1.35</t>
+  </si>
+  <si>
     <t>CFT Prat - Rack Principal</t>
   </si>
   <si>
@@ -121,6 +169,9 @@
     <t>Operativo</t>
   </si>
   <si>
+    <t>Activo</t>
+  </si>
+  <si>
     <t>Cable de conexión a internet tuvo problema 14-15/10/2024 (cable suelto)</t>
   </si>
   <si>
@@ -128,6 +179,57 @@
   </si>
   <si>
     <t>Falla eléctrica 17/10/2025 por automático caído</t>
+  </si>
+  <si>
+    <t>NVR campus Pucón</t>
+  </si>
+  <si>
+    <t>NVR principal CFT Prat - RAID 1</t>
+  </si>
+  <si>
+    <t>Sistema híbrido - AHD + IP</t>
+  </si>
+  <si>
+    <t>NVR-004</t>
+  </si>
+  <si>
+    <t>NVR-005</t>
+  </si>
+  <si>
+    <t>DVR-001</t>
+  </si>
+  <si>
+    <t>2TB WD Purple</t>
+  </si>
+  <si>
+    <t>2x 2TB WD Purple (RAID)</t>
+  </si>
+  <si>
+    <t>1TB Seagate</t>
+  </si>
+  <si>
+    <t>GAB-004</t>
+  </si>
+  <si>
+    <t>GAB-005</t>
+  </si>
+  <si>
+    <t>GAB-006</t>
+  </si>
+  <si>
+    <t>2024-08-05</t>
+  </si>
+  <si>
+    <t>2024-05-12</t>
+  </si>
+  <si>
+    <t>2024-06-20</t>
+  </si>
+  <si>
+    <t>2025-09-18</t>
+  </si>
+  <si>
+    <t>2025-10-10</t>
   </si>
 </sst>
 </file>
@@ -485,13 +587,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,19 +639,37 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F2">
         <v>16</v>
@@ -561,39 +681,39 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="N2">
         <v>4</v>
       </c>
       <c r="O2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F3">
         <v>16</v>
@@ -605,39 +725,39 @@
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>6</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F4">
         <v>8</v>
@@ -649,25 +769,163 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="N4">
         <v>2</v>
       </c>
       <c r="O4" t="s">
-        <v>37</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5">
+        <v>8</v>
+      </c>
+      <c r="R5" t="s">
+        <v>61</v>
+      </c>
+      <c r="S5" t="s">
+        <v>64</v>
+      </c>
+      <c r="T5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6">
+        <v>16</v>
+      </c>
+      <c r="R6" t="s">
+        <v>62</v>
+      </c>
+      <c r="S6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T6" t="s">
+        <v>68</v>
+      </c>
+      <c r="U6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q7">
+        <v>8</v>
+      </c>
+      <c r="R7" t="s">
+        <v>63</v>
+      </c>
+      <c r="S7" t="s">
+        <v>66</v>
+      </c>
+      <c r="T7" t="s">
+        <v>69</v>
+      </c>
+      <c r="U7" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
